--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\CDSData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECCEAD9-78FE-4B35-8941-F0CCAB62A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB35F0-1464-48FD-B144-DE078DC92FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
-    <sheet name="Enrollment_by_Race" sheetId="2" r:id="rId2"/>
+    <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB35F0-1464-48FD-B144-DE078DC92FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64BE0F-DCB2-4C36-A807-A99B343463A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
     <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="High School Units" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>full-time</t>
   </si>
@@ -112,6 +113,45 @@
   </si>
   <si>
     <t>african-american</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>foreign-language</t>
+  </si>
+  <si>
+    <t>social-studies</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>academic-electives</t>
+  </si>
+  <si>
+    <t>computer-science</t>
+  </si>
+  <si>
+    <t>visual/performing-arts</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>units-required</t>
+  </si>
+  <si>
+    <t>units-recommended</t>
   </si>
 </sst>
 </file>
@@ -2530,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3668,4 +3708,1079 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A5A0C-6D9D-447E-B00E-4FA3959891AF}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64BE0F-DCB2-4C36-A807-A99B343463A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AC8C7-92A5-4AEF-B782-587BDC1F4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
-    <sheet name="General_Enrollment" sheetId="1" r:id="rId1"/>
-    <sheet name="Race_Enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
+    <sheet name="Enrollment_Race" sheetId="2" r:id="rId2"/>
     <sheet name="High School Units" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -3715,11 +3715,16 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" customWidth="1"/>
   </cols>

--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AC8C7-92A5-4AEF-B782-587BDC1F4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CDF88F-92B5-4FA4-8301-D8906A637394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1295</v>
+        <v>939</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3712,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A5A0C-6D9D-447E-B00E-4FA3959891AF}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3987,27 +3987,27 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4031,15 +4031,15 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4048,13 +4048,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4119,15 +4119,15 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4142,10 +4142,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4163,15 +4163,15 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4233,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4251,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4383,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4412,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4427,15 +4427,15 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4471,15 +4471,15 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4515,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -4559,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -4594,19 +4594,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -4647,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -4685,104 +4685,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CDF88F-92B5-4FA4-8301-D8906A637394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A8A8C-6102-40C7-AF54-DCCA395B7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -40,22 +40,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
-    <t>full-time</t>
-  </si>
-  <si>
-    <t>part-time</t>
-  </si>
-  <si>
     <t>degree-seeking</t>
   </si>
   <si>
     <t>non-degree-seeking</t>
-  </si>
-  <si>
-    <t>freshman</t>
-  </si>
-  <si>
-    <t>non-freshman</t>
   </si>
   <si>
     <t>first-year</t>
@@ -92,18 +80,6 @@
   </si>
   <si>
     <t>pacific-islander</t>
-  </si>
-  <si>
-    <t>graduate</t>
-  </si>
-  <si>
-    <t>undergraduate</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>women</t>
   </si>
   <si>
     <t>Value</t>
@@ -152,6 +128,30 @@
   </si>
   <si>
     <t>units-recommended</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>full-time</t>
+  </si>
+  <si>
+    <t>part-time</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>freshman</t>
+  </si>
+  <si>
+    <t>non-freshman</t>
   </si>
 </sst>
 </file>
@@ -505,60 +505,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -805,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -855,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -905,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -955,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2570,7 +2587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB211C-713F-433C-AADD-E85D0317D8A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -2594,55 +2611,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,46 +3748,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">

--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A8A8C-6102-40C7-AF54-DCCA395B7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E9180-5A03-42BF-BEF9-AB98C6FA8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment_General" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>degree-seeking</t>
   </si>
@@ -124,12 +124,6 @@
     <t>others</t>
   </si>
   <si>
-    <t>units-required</t>
-  </si>
-  <si>
-    <t>units-recommended</t>
-  </si>
-  <si>
     <t>undergraduate</t>
   </si>
   <si>
@@ -152,6 +146,15 @@
   </si>
   <si>
     <t>non-freshman</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224585FE-606B-4F40-9ACE-2F85812D2681}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,34 +536,34 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -3729,24 +3732,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466A5A0C-6D9D-447E-B00E-4FA3959891AF}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3784,13 +3795,16 @@
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3831,10 +3845,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3872,13 +3889,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3919,10 +3939,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3960,13 +3983,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4004,13 +4030,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4051,10 +4080,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4095,10 +4127,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4136,13 +4171,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4183,10 +4221,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4224,13 +4265,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4271,10 +4315,13 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4312,13 +4359,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4359,10 +4409,13 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4400,13 +4453,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4447,10 +4503,13 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4488,13 +4547,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4535,10 +4597,13 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4576,13 +4641,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4623,10 +4691,13 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -4664,13 +4735,16 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -4711,6 +4785,9 @@
         <v>1</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
     </row>

--- a/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
+++ b/tests/testMaterials/CDS_SPARSE_2020_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengy6\Desktop\rhit_IRPA_2023\tests\testMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E9180-5A03-42BF-BEF9-AB98C6FA8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1DFFC-80D9-4EFB-A50A-DC108779BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE1ED6D0-6606-421C-9DB9-B4886BF13D14}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <t>non-freshman</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>require</t>
   </si>
   <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -3735,7 +3735,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,13 +3795,13 @@
         <v>27</v>
       </c>
       <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
